--- a/xlsx/哥斯大黎加_intext.xlsx
+++ b/xlsx/哥斯大黎加_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="802">
   <si>
     <t>哥斯大黎加</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E5%A4%A7%E9%BB%8E%E5%8A%A0%E5%9C%8B%E6%97%97</t>
   </si>
   <si>
-    <t>哥斯大黎加國旗</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_哥斯大黎加</t>
+    <t>哥斯大黎加国旗</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_哥斯大黎加</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0%E5%9B%BD%E5%BE%BD</t>
@@ -53,19 +53,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%AD%8C</t>
   </si>
   <si>
-    <t>國歌</t>
+    <t>国歌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E8%B2%B4%E7%9A%84%E5%AE%B6%E5%9C%92%EF%BC%8C%E4%BD%A0%E7%BE%8E%E9%BA%97%E7%9A%84%E6%97%97%E5%B9%9F</t>
   </si>
   <si>
-    <t>高貴的家園，你美麗的旗幟</t>
+    <t>高贵的家园，你美丽的旗帜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9D%A2%E7%A9%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家面積列表</t>
+    <t>国家面积列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
@@ -83,13 +83,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B2%B8%E7%B7%9A</t>
   </si>
   <si>
-    <t>海岸線</t>
+    <t>海岸线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%8D%80</t>
   </si>
   <si>
-    <t>時區</t>
+    <t>时区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家人口列表</t>
+    <t>国家人口列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2011%E5%B9%B4</t>
@@ -125,15 +125,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>官方語言</t>
+    <t>官方语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>西班牙語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E6%96%87%E5%AD%97</t>
   </si>
   <si>
@@ -149,7 +146,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%A3%AB%E8%92%82%E7%B4%A2%E4%BA%BA</t>
   </si>
   <si>
-    <t>麥士蒂索人</t>
+    <t>麦士蒂索人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E6%8B%89%E6%89%98%E4%BA%BA</t>
@@ -191,61 +188,61 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%86%E6%B3%95</t>
   </si>
   <si>
-    <t>曆法</t>
+    <t>历法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A6%81%E7%AF%80%E6%97%A5</t>
   </si>
   <si>
-    <t>主要節日</t>
+    <t>主要节日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E6%97%A5</t>
   </si>
   <si>
-    <t>獨立日</t>
+    <t>独立日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB</t>
   </si>
   <si>
-    <t>電</t>
+    <t>电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%A3%93</t>
   </si>
   <si>
-    <t>電壓</t>
+    <t>电压</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E7%94%A8%E9%9B%BB%E6%BA%90%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>家用電源列表</t>
+    <t>家用电源列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%BB%E7%8E%87</t>
   </si>
   <si>
-    <t>頻率</t>
+    <t>频率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E9%AB%94%E5%88%B6</t>
   </si>
   <si>
-    <t>政治體制</t>
+    <t>政治体制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1%E5%88%B6</t>
   </si>
   <si>
-    <t>總統制</t>
+    <t>总统制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>法律體系</t>
+    <t>法律体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%99%86%E6%B3%95%E7%B3%BB</t>
@@ -257,7 +254,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0%E6%80%BB%E7%BB%9F</t>
@@ -269,25 +266,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%C2%B7%E5%90%89%E5%88%97%E7%88%BE%E8%8E%AB%C2%B7%E7%B4%A2%E5%88%A9%E6%96%AF</t>
   </si>
   <si>
-    <t>路易斯·吉列爾莫·索利斯</t>
+    <t>路易斯·吉列尔莫·索利斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
   </si>
   <si>
-    <t>政府首腦</t>
+    <t>政府首脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
   </si>
   <si>
-    <t>國內生產總值</t>
+    <t>国内生产总值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7%E5%8A%9B%E5%B9%B3%E5%83%B9</t>
   </si>
   <si>
-    <t>購買力平價</t>
+    <t>购买力平价</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4</t>
@@ -305,7 +302,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>人類發展指數</t>
+    <t>人类发展指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2013%E5%B9%B4</t>
@@ -317,7 +314,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>中央銀行</t>
+    <t>中央银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E5%A4%A7%E9%BB%8E%E5%8A%A0%E7%A7%91%E6%9C%97</t>
@@ -347,7 +344,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9F%9F%E5%90%8D%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>國際域名縮寫</t>
+    <t>国际域名缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CR</t>
@@ -359,7 +356,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9B%BB%E8%A9%B1%E5%8D%80%E8%99%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國際電話區號列表</t>
+    <t>国际电话区号列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E%E6%B4%B2</t>
@@ -389,7 +386,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%92%E6%9C%89%E8%BB%8D%E9%9A%8A%E7%9A%84%E5%9C%8B%E5%AE%B6%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>沒有軍隊的國家列表</t>
+    <t>没有军队的国家列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0%E5%8E%86%E5%8F%B2</t>
@@ -413,7 +410,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E9%81%94%E9%BB%8E%E5%8A%A0</t>
   </si>
   <si>
-    <t>哥斯達黎加</t>
+    <t>哥斯达黎加</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E%E6%B4%B2%E6%96%87%E6%98%8E</t>
@@ -425,13 +422,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E9%9B%85%E4%BA%BA</t>
   </si>
   <si>
-    <t>瑪雅人</t>
+    <t>玛雅人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%8C%B2%E5%8F%B0%E5%85%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>阿茲台克人</t>
+    <t>阿兹台克人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -467,7 +464,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E%E6%B4%B2%E8%81%AF%E5%90%88%E7%9C%81</t>
   </si>
   <si>
-    <t>中美洲聯合省</t>
+    <t>中美洲联合省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E%E6%B4%B2%E5%8E%86%E5%8F%B2</t>
@@ -485,7 +482,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>憲法</t>
+    <t>宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB</t>
@@ -521,7 +518,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%BF%9D%E9%9A%9C</t>
   </si>
   <si>
-    <t>社會保障</t>
+    <t>社会保障</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
@@ -599,7 +596,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E8%A1%80%E5%85%92</t>
   </si>
   <si>
-    <t>混血兒</t>
+    <t>混血儿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
@@ -629,7 +626,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B9%9D%E4%B8%96%E7%B4%80</t>
   </si>
   <si>
-    <t>十九世紀</t>
+    <t>十九世纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%99%E4%B9%B0%E5%8A%A0</t>
@@ -665,21 +662,18 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E9%81%94%E9%BB%8E%E5%8A%A0%E5%9C%B0%E7%90%86</t>
   </si>
   <si>
-    <t>哥斯達黎加地理</t>
+    <t>哥斯达黎加地理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
   </si>
   <si>
@@ -725,7 +719,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%86%B1%E5%B8%B6</t>
   </si>
   <si>
-    <t>新熱帶</t>
+    <t>新热带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E4%BA%BA</t>
@@ -737,13 +731,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E9%9B%85%E6%96%87%E6%98%8E</t>
   </si>
   <si>
-    <t>瑪雅文明</t>
+    <t>玛雅文明</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E8%BE%89%E6%8B%89%E7%9C%81</t>
@@ -761,7 +755,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%89%A9</t>
   </si>
   <si>
-    <t>動物</t>
+    <t>动物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A4%8D%E7%89%A9</t>
@@ -773,37 +767,37 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B8%E8%BB%8D</t>
   </si>
   <si>
-    <t>陸軍</t>
+    <t>陆军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%BB%8D</t>
   </si>
   <si>
-    <t>海軍</t>
+    <t>海军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8E%E7%94%9F%E5%8B%95%E7%89%A9</t>
   </si>
   <si>
-    <t>野生動物</t>
+    <t>野生动物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%9E%9E%E8%9F%BB</t>
   </si>
   <si>
-    <t>螞蟻</t>
+    <t>蚂蚁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E5%89%9B%E9%B8%9A%E9%B5%A1</t>
   </si>
   <si>
-    <t>金剛鸚鵡</t>
+    <t>金刚鹦鹉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AF%A8</t>
   </si>
   <si>
-    <t>鯨</t>
+    <t>鲸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%9C%98%E8%9B%9B%E7%8C%BF</t>
@@ -827,13 +821,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%AD%E8%8A%B1</t>
   </si>
   <si>
-    <t>蘭花</t>
+    <t>兰花</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%BA%E4%B9%B3%E5%8B%95%E7%89%A9</t>
   </si>
   <si>
-    <t>哺乳動物</t>
+    <t>哺乳动物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%8D%E6%B0%B4</t>
@@ -845,7 +839,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%85%A7%E6%99%82%E6%95%B8</t>
   </si>
   <si>
-    <t>日照時數</t>
+    <t>日照时数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/International_Monetary_Fund</t>
@@ -971,7 +965,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>多明尼加共和國</t>
+    <t>多明尼加共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E7%BA%B3%E8%BE%BE</t>
@@ -989,7 +983,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>聖克里斯多福與尼維斯</t>
+    <t>圣克里斯多福与尼维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
@@ -1007,7 +1001,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
   </si>
   <si>
-    <t>千里達及托巴哥</t>
+    <t>千里达及托巴哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
@@ -1025,7 +1019,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
+    <t>玻利维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
@@ -1043,9 +1037,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>哥倫比亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94</t>
   </si>
   <si>
@@ -1061,9 +1052,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
   </si>
   <si>
@@ -1073,7 +1061,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%88%A9%E5%8D%97</t>
   </si>
   <si>
-    <t>蘇利南</t>
+    <t>苏利南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
@@ -1085,13 +1073,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
   </si>
   <si>
-    <t>屬地</t>
+    <t>属地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%AD%E6%8B%89</t>
@@ -1103,25 +1091,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%AD%AF%E5%B7%B4</t>
   </si>
   <si>
-    <t>阿魯巴</t>
+    <t>阿鲁巴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E6%8B%89%E7%B4%A2</t>
   </si>
   <si>
-    <t>庫拉索</t>
+    <t>库拉索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>荷屬聖馬丁</t>
+    <t>荷属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B6%AD%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>英屬維京群島</t>
+    <t>英属维京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E5%A4%A7</t>
@@ -1133,19 +1121,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%9B%BC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>開曼群島</t>
+    <t>开曼群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E8%98%AD%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>福克蘭群島</t>
+    <t>福克兰群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E5%9C%AD%E4%BA%9E%E9%82%A3</t>
   </si>
   <si>
-    <t>法屬圭亞那</t>
+    <t>法属圭亚那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E5%85%B0</t>
@@ -1163,31 +1151,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8F%90%E5%B0%BC%E5%85%8B</t>
   </si>
   <si>
-    <t>馬提尼克</t>
+    <t>马提尼克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>法屬聖馬丁</t>
+    <t>法属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E6%B3%B0%E5%8B%92%E7%B1%B3%E5%B3%B6</t>
   </si>
   <si>
-    <t>聖巴泰勒米島</t>
+    <t>圣巴泰勒米岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A1%9E%E6%8B%89%E7%89%B9%E5%B3%B6</t>
   </si>
   <si>
-    <t>蒙塞拉特島</t>
+    <t>蒙塞拉特岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E5%BC%97%E6%B2%99%E5%B3%B6</t>
   </si>
   <si>
-    <t>納弗沙島</t>
+    <t>纳弗沙岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%9A%AE%E5%9F%83%E5%B0%94%E5%92%8C%E5%AF%86%E5%85%8B%E9%9A%86</t>
@@ -1217,7 +1205,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
@@ -1235,7 +1223,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
@@ -1247,7 +1235,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
@@ -1313,9 +1301,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E8%8C%B2</t>
   </si>
   <si>
-    <t>伯利茲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%AE%81</t>
   </si>
   <si>
@@ -1331,9 +1316,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%BB%B4%E4%BA%9A</t>
   </si>
   <si>
-    <t>玻利维亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E8%8C%A8%E7%93%A6%E7%BA%B3</t>
   </si>
   <si>
@@ -1343,7 +1325,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%B6%E8%90%8A</t>
   </si>
   <si>
-    <t>汶萊</t>
+    <t>汶莱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%9F%BA%E7%BA%B3%E6%B3%95%E7%B4%A2</t>
@@ -1853,7 +1835,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
+    <t>亚美尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
@@ -1889,7 +1871,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
@@ -1937,7 +1919,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E5%9C%88%E5%9C%8B%E9%9A%9B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>法語圈國際組織</t>
+    <t>法语圈国际组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
@@ -1967,7 +1949,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
   </si>
   <si>
-    <t>布吉納法索</t>
+    <t>布吉纳法索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%B2%E9%9A%86%E5%9C%B0</t>
@@ -1979,9 +1961,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中非共和國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
   </si>
   <si>
@@ -1997,7 +1976,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E%E6%AF%94%E7%B4%A2</t>
   </si>
   <si>
-    <t>幾內亞比索</t>
+    <t>几内亚比索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%A3%AE%E5%A0%A1</t>
@@ -2009,7 +1988,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬其頓共和國</t>
+    <t>马其顿共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6</t>
@@ -2027,7 +2006,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%B8%8D%E5%80%AB%E7%91%9E%E5%85%8B</t>
   </si>
   <si>
-    <t>新不倫瑞克</t>
+    <t>新不伦瑞克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%81%E5%8C%97%E5%85%8B</t>
@@ -2039,7 +2018,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞</t>
+    <t>罗马尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
@@ -2051,7 +2030,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6%E6%B3%95%E8%AF%AD%E7%A4%BE%E7%BE%A4</t>
@@ -2063,13 +2042,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%96%80%E9%87%8C%E5%A4%9A%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>新喀里多尼亞</t>
+    <t>新喀里多尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9</t>
@@ -2111,7 +2090,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>拉脫維亞</t>
+    <t>拉脱维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
@@ -2153,7 +2132,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%89%B9%E7%BE%85%E6%96%AF%C2%B7%E5%B8%83%E7%89%B9%E7%BE%85%E6%96%AF-%E5%8A%A0%E5%88%A9</t>
   </si>
   <si>
-    <t>布特羅斯·布特羅斯-加利</t>
+    <t>布特罗斯·布特罗斯-加利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%84%E7%BE%8E%E6%A5%B7</t>
@@ -2171,13 +2150,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E%E7%B3%BB%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>法語系運動會</t>
+    <t>法语系运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E9%9B%BB%E8%A6%96%E5%9C%8B%E9%9A%9B%E4%BA%94%E5%8F%B0</t>
   </si>
   <si>
-    <t>法國電視國際五台</t>
+    <t>法国电视国际五台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AF%AD%E8%81%94%E7%9B%9F</t>
@@ -2207,7 +2186,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
   </si>
   <si>
-    <t>馬爾他騎士團</t>
+    <t>马尔他骑士团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
@@ -2219,37 +2198,34 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%8B%89%E5%9C%AD</t>
   </si>
   <si>
-    <t>烏拉圭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%B0%E7%BE%85%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>加泰羅尼亞語</t>
+    <t>加泰罗尼亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
   </si>
   <si>
-    <t>法語</t>
+    <t>法语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E8%AA%9E</t>
   </si>
   <si>
-    <t>義大利語</t>
+    <t>义大利语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>葡萄牙語</t>
+    <t>葡萄牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞語</t>
+    <t>罗马尼亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E4%BC%9A</t>
@@ -2315,9 +2291,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E6%9C%83%E5%90%A6%E6%B1%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>聯合國安全理事會否決權</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%B0%94%E5%A1%94%E4%BC%9A%E8%AE%AE</t>
   </si>
   <si>
@@ -2333,7 +2306,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E8%88%87%E8%81%AF%E5%90%88%E5%9C%8B%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>中國與聯合國關係</t>
+    <t>中国与联合国关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E8%A7%A3%E4%BD%93</t>
@@ -2345,7 +2318,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%9C%8B%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>四國聯盟</t>
+    <t>四国联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E6%94%B9%E9%9D%A9</t>
@@ -2369,7 +2342,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -2381,19 +2354,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>衣索比亞</t>
+    <t>衣索比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
@@ -2405,7 +2375,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2435,13 +2405,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0</t>
@@ -3401,7 +3371,7 @@
         <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="G21" t="n">
         <v>6</v>
@@ -3427,10 +3397,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" t="s">
         <v>39</v>
-      </c>
-      <c r="F22" t="s">
-        <v>40</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -3456,10 +3426,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" t="s">
         <v>41</v>
-      </c>
-      <c r="F23" t="s">
-        <v>42</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
@@ -3485,10 +3455,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" t="s">
         <v>43</v>
-      </c>
-      <c r="F24" t="s">
-        <v>44</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -3514,10 +3484,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
         <v>45</v>
-      </c>
-      <c r="F25" t="s">
-        <v>46</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -3543,10 +3513,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" t="s">
         <v>47</v>
-      </c>
-      <c r="F26" t="s">
-        <v>48</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -3572,10 +3542,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" t="s">
         <v>49</v>
-      </c>
-      <c r="F27" t="s">
-        <v>50</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -3601,10 +3571,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" t="s">
         <v>51</v>
-      </c>
-      <c r="F28" t="s">
-        <v>52</v>
       </c>
       <c r="G28" t="n">
         <v>3</v>
@@ -3630,10 +3600,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" t="s">
         <v>53</v>
-      </c>
-      <c r="F29" t="s">
-        <v>54</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -3659,10 +3629,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" t="s">
         <v>55</v>
-      </c>
-      <c r="F30" t="s">
-        <v>56</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -3688,10 +3658,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" t="s">
         <v>57</v>
-      </c>
-      <c r="F31" t="s">
-        <v>58</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -3717,10 +3687,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" t="s">
         <v>59</v>
-      </c>
-      <c r="F32" t="s">
-        <v>60</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -3746,10 +3716,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" t="s">
         <v>61</v>
-      </c>
-      <c r="F33" t="s">
-        <v>62</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -3775,10 +3745,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" t="s">
         <v>63</v>
-      </c>
-      <c r="F34" t="s">
-        <v>64</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -3804,10 +3774,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" t="s">
         <v>65</v>
-      </c>
-      <c r="F35" t="s">
-        <v>66</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -3833,10 +3803,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" t="s">
         <v>67</v>
-      </c>
-      <c r="F36" t="s">
-        <v>68</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -3862,10 +3832,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" t="s">
         <v>69</v>
-      </c>
-      <c r="F37" t="s">
-        <v>70</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -3891,10 +3861,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" t="s">
         <v>71</v>
-      </c>
-      <c r="F38" t="s">
-        <v>72</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -3920,10 +3890,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" t="s">
         <v>73</v>
-      </c>
-      <c r="F39" t="s">
-        <v>74</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -3949,10 +3919,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" t="s">
         <v>75</v>
-      </c>
-      <c r="F40" t="s">
-        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -3978,10 +3948,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" t="s">
         <v>77</v>
-      </c>
-      <c r="F41" t="s">
-        <v>78</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -4007,10 +3977,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" t="s">
         <v>79</v>
-      </c>
-      <c r="F42" t="s">
-        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -4036,10 +4006,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" t="s">
         <v>81</v>
-      </c>
-      <c r="F43" t="s">
-        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>8</v>
@@ -4065,10 +4035,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" t="s">
         <v>83</v>
-      </c>
-      <c r="F44" t="s">
-        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -4094,10 +4064,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" t="s">
         <v>85</v>
-      </c>
-      <c r="F45" t="s">
-        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -4123,10 +4093,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" t="s">
         <v>87</v>
-      </c>
-      <c r="F46" t="s">
-        <v>88</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -4152,10 +4122,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" t="s">
         <v>89</v>
-      </c>
-      <c r="F47" t="s">
-        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -4181,10 +4151,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" t="s">
         <v>91</v>
-      </c>
-      <c r="F48" t="s">
-        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -4210,10 +4180,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" t="s">
         <v>93</v>
-      </c>
-      <c r="F49" t="s">
-        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>6</v>
@@ -4239,10 +4209,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" t="s">
         <v>95</v>
-      </c>
-      <c r="F50" t="s">
-        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -4268,10 +4238,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" t="s">
         <v>97</v>
-      </c>
-      <c r="F51" t="s">
-        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -4297,10 +4267,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" t="s">
         <v>99</v>
-      </c>
-      <c r="F52" t="s">
-        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -4326,10 +4296,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" t="s">
         <v>101</v>
-      </c>
-      <c r="F53" t="s">
-        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>3</v>
@@ -4355,10 +4325,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" t="s">
         <v>103</v>
-      </c>
-      <c r="F54" t="s">
-        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -4384,10 +4354,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>104</v>
+      </c>
+      <c r="F55" t="s">
         <v>105</v>
-      </c>
-      <c r="F55" t="s">
-        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -4413,10 +4383,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" t="s">
         <v>107</v>
-      </c>
-      <c r="F56" t="s">
-        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -4442,10 +4412,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" t="s">
         <v>109</v>
-      </c>
-      <c r="F57" t="s">
-        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -4471,10 +4441,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" t="s">
         <v>111</v>
-      </c>
-      <c r="F58" t="s">
-        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>3</v>
@@ -4500,10 +4470,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" t="s">
         <v>113</v>
-      </c>
-      <c r="F59" t="s">
-        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -4529,10 +4499,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" t="s">
         <v>115</v>
-      </c>
-      <c r="F60" t="s">
-        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>10</v>
@@ -4558,10 +4528,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" t="s">
         <v>117</v>
-      </c>
-      <c r="F61" t="s">
-        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>8</v>
@@ -4587,10 +4557,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" t="s">
         <v>119</v>
-      </c>
-      <c r="F62" t="s">
-        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>7</v>
@@ -4616,10 +4586,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" t="s">
         <v>121</v>
-      </c>
-      <c r="F63" t="s">
-        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>7</v>
@@ -4645,10 +4615,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" t="s">
         <v>123</v>
-      </c>
-      <c r="F64" t="s">
-        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -4703,10 +4673,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>124</v>
+      </c>
+      <c r="F66" t="s">
         <v>125</v>
-      </c>
-      <c r="F66" t="s">
-        <v>126</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4732,10 +4702,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>126</v>
+      </c>
+      <c r="F67" t="s">
         <v>127</v>
-      </c>
-      <c r="F67" t="s">
-        <v>128</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4761,10 +4731,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>128</v>
+      </c>
+      <c r="F68" t="s">
         <v>129</v>
-      </c>
-      <c r="F68" t="s">
-        <v>130</v>
       </c>
       <c r="G68" t="n">
         <v>3</v>
@@ -4790,10 +4760,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>130</v>
+      </c>
+      <c r="F69" t="s">
         <v>131</v>
-      </c>
-      <c r="F69" t="s">
-        <v>132</v>
       </c>
       <c r="G69" t="n">
         <v>22</v>
@@ -4819,10 +4789,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>132</v>
+      </c>
+      <c r="F70" t="s">
         <v>133</v>
-      </c>
-      <c r="F70" t="s">
-        <v>134</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4848,10 +4818,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>134</v>
+      </c>
+      <c r="F71" t="s">
         <v>135</v>
-      </c>
-      <c r="F71" t="s">
-        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -4877,10 +4847,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>136</v>
+      </c>
+      <c r="F72" t="s">
         <v>137</v>
-      </c>
-      <c r="F72" t="s">
-        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4906,10 +4876,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>138</v>
+      </c>
+      <c r="F73" t="s">
         <v>139</v>
-      </c>
-      <c r="F73" t="s">
-        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>15</v>
@@ -4935,10 +4905,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>140</v>
+      </c>
+      <c r="F74" t="s">
         <v>141</v>
-      </c>
-      <c r="F74" t="s">
-        <v>142</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4964,10 +4934,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>142</v>
+      </c>
+      <c r="F75" t="s">
         <v>143</v>
-      </c>
-      <c r="F75" t="s">
-        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4993,10 +4963,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>144</v>
+      </c>
+      <c r="F76" t="s">
         <v>145</v>
-      </c>
-      <c r="F76" t="s">
-        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -5022,10 +4992,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>146</v>
+      </c>
+      <c r="F77" t="s">
         <v>147</v>
-      </c>
-      <c r="F77" t="s">
-        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -5051,10 +5021,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>148</v>
+      </c>
+      <c r="F78" t="s">
         <v>149</v>
-      </c>
-      <c r="F78" t="s">
-        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -5080,10 +5050,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>150</v>
+      </c>
+      <c r="F79" t="s">
         <v>151</v>
-      </c>
-      <c r="F79" t="s">
-        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -5109,10 +5079,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>80</v>
+      </c>
+      <c r="F80" t="s">
         <v>81</v>
-      </c>
-      <c r="F80" t="s">
-        <v>82</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -5138,10 +5108,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>152</v>
+      </c>
+      <c r="F81" t="s">
         <v>153</v>
-      </c>
-      <c r="F81" t="s">
-        <v>154</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -5167,10 +5137,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>154</v>
+      </c>
+      <c r="F82" t="s">
         <v>155</v>
-      </c>
-      <c r="F82" t="s">
-        <v>156</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -5196,10 +5166,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>156</v>
+      </c>
+      <c r="F83" t="s">
         <v>157</v>
-      </c>
-      <c r="F83" t="s">
-        <v>158</v>
       </c>
       <c r="G83" t="n">
         <v>5</v>
@@ -5225,10 +5195,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>158</v>
+      </c>
+      <c r="F84" t="s">
         <v>159</v>
-      </c>
-      <c r="F84" t="s">
-        <v>160</v>
       </c>
       <c r="G84" t="n">
         <v>3</v>
@@ -5254,10 +5224,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>160</v>
+      </c>
+      <c r="F85" t="s">
         <v>161</v>
-      </c>
-      <c r="F85" t="s">
-        <v>162</v>
       </c>
       <c r="G85" t="n">
         <v>9</v>
@@ -5283,10 +5253,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>162</v>
+      </c>
+      <c r="F86" t="s">
         <v>163</v>
-      </c>
-      <c r="F86" t="s">
-        <v>164</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5312,10 +5282,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>164</v>
+      </c>
+      <c r="F87" t="s">
         <v>165</v>
-      </c>
-      <c r="F87" t="s">
-        <v>166</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5341,10 +5311,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>166</v>
+      </c>
+      <c r="F88" t="s">
         <v>167</v>
-      </c>
-      <c r="F88" t="s">
-        <v>168</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5370,10 +5340,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>168</v>
+      </c>
+      <c r="F89" t="s">
         <v>169</v>
-      </c>
-      <c r="F89" t="s">
-        <v>170</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5399,10 +5369,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>170</v>
+      </c>
+      <c r="F90" t="s">
         <v>171</v>
-      </c>
-      <c r="F90" t="s">
-        <v>172</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5428,10 +5398,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>172</v>
+      </c>
+      <c r="F91" t="s">
         <v>173</v>
-      </c>
-      <c r="F91" t="s">
-        <v>174</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -5457,10 +5427,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>174</v>
+      </c>
+      <c r="F92" t="s">
         <v>175</v>
-      </c>
-      <c r="F92" t="s">
-        <v>176</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5486,10 +5456,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>176</v>
+      </c>
+      <c r="F93" t="s">
         <v>177</v>
-      </c>
-      <c r="F93" t="s">
-        <v>178</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5515,10 +5485,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>178</v>
+      </c>
+      <c r="F94" t="s">
         <v>179</v>
-      </c>
-      <c r="F94" t="s">
-        <v>180</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5544,10 +5514,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>180</v>
+      </c>
+      <c r="F95" t="s">
         <v>181</v>
-      </c>
-      <c r="F95" t="s">
-        <v>182</v>
       </c>
       <c r="G95" t="n">
         <v>4</v>
@@ -5573,10 +5543,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>182</v>
+      </c>
+      <c r="F96" t="s">
         <v>183</v>
-      </c>
-      <c r="F96" t="s">
-        <v>184</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5602,10 +5572,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>184</v>
+      </c>
+      <c r="F97" t="s">
         <v>185</v>
-      </c>
-      <c r="F97" t="s">
-        <v>186</v>
       </c>
       <c r="G97" t="n">
         <v>6</v>
@@ -5631,10 +5601,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>186</v>
+      </c>
+      <c r="F98" t="s">
         <v>187</v>
-      </c>
-      <c r="F98" t="s">
-        <v>188</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5660,10 +5630,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>188</v>
+      </c>
+      <c r="F99" t="s">
         <v>189</v>
-      </c>
-      <c r="F99" t="s">
-        <v>190</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5689,10 +5659,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>190</v>
+      </c>
+      <c r="F100" t="s">
         <v>191</v>
-      </c>
-      <c r="F100" t="s">
-        <v>192</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5718,10 +5688,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>192</v>
+      </c>
+      <c r="F101" t="s">
         <v>193</v>
-      </c>
-      <c r="F101" t="s">
-        <v>194</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5747,10 +5717,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>194</v>
+      </c>
+      <c r="F102" t="s">
         <v>195</v>
-      </c>
-      <c r="F102" t="s">
-        <v>196</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5776,10 +5746,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>196</v>
+      </c>
+      <c r="F103" t="s">
         <v>197</v>
-      </c>
-      <c r="F103" t="s">
-        <v>198</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -5805,10 +5775,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>198</v>
+      </c>
+      <c r="F104" t="s">
         <v>199</v>
-      </c>
-      <c r="F104" t="s">
-        <v>200</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -5834,10 +5804,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>200</v>
+      </c>
+      <c r="F105" t="s">
         <v>201</v>
-      </c>
-      <c r="F105" t="s">
-        <v>202</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5863,10 +5833,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>202</v>
+      </c>
+      <c r="F106" t="s">
         <v>203</v>
-      </c>
-      <c r="F106" t="s">
-        <v>204</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5892,10 +5862,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>204</v>
+      </c>
+      <c r="F107" t="s">
         <v>205</v>
-      </c>
-      <c r="F107" t="s">
-        <v>206</v>
       </c>
       <c r="G107" t="n">
         <v>3</v>
@@ -5921,10 +5891,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>206</v>
+      </c>
+      <c r="F108" t="s">
         <v>207</v>
-      </c>
-      <c r="F108" t="s">
-        <v>208</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5950,10 +5920,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>208</v>
+      </c>
+      <c r="F109" t="s">
         <v>209</v>
-      </c>
-      <c r="F109" t="s">
-        <v>210</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5979,10 +5949,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>210</v>
+      </c>
+      <c r="F110" t="s">
         <v>211</v>
-      </c>
-      <c r="F110" t="s">
-        <v>212</v>
       </c>
       <c r="G110" t="n">
         <v>3</v>
@@ -6008,10 +5978,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>212</v>
+      </c>
+      <c r="F111" t="s">
         <v>213</v>
-      </c>
-      <c r="F111" t="s">
-        <v>214</v>
       </c>
       <c r="G111" t="n">
         <v>3</v>
@@ -6037,10 +6007,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>214</v>
+      </c>
+      <c r="F112" t="s">
         <v>215</v>
-      </c>
-      <c r="F112" t="s">
-        <v>216</v>
       </c>
       <c r="G112" t="n">
         <v>7</v>
@@ -6066,10 +6036,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>216</v>
+      </c>
+      <c r="F113" t="s">
         <v>217</v>
-      </c>
-      <c r="F113" t="s">
-        <v>218</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -6095,10 +6065,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>184</v>
+      </c>
+      <c r="F114" t="s">
         <v>185</v>
-      </c>
-      <c r="F114" t="s">
-        <v>186</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -6124,10 +6094,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F115" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G115" t="n">
         <v>4</v>
@@ -6153,10 +6123,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F116" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6182,10 +6152,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F117" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -6211,10 +6181,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F118" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6240,10 +6210,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F119" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6269,10 +6239,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F120" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -6298,10 +6268,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F121" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G121" t="n">
         <v>3</v>
@@ -6327,10 +6297,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F122" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6356,10 +6326,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F123" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6385,10 +6355,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F124" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6414,10 +6384,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F125" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6443,10 +6413,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F126" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G126" t="n">
         <v>4</v>
@@ -6472,10 +6442,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>174</v>
+      </c>
+      <c r="F127" t="s">
         <v>175</v>
-      </c>
-      <c r="F127" t="s">
-        <v>176</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6501,10 +6471,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F128" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6530,10 +6500,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F129" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6559,10 +6529,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F130" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G130" t="n">
         <v>5</v>
@@ -6588,10 +6558,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F131" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -6617,10 +6587,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F132" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -6646,10 +6616,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F133" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6675,10 +6645,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F134" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6704,10 +6674,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F135" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6733,10 +6703,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F136" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6762,10 +6732,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F137" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6791,10 +6761,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F138" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6820,10 +6790,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F139" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6849,10 +6819,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F140" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6878,10 +6848,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F141" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6907,10 +6877,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F142" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6936,10 +6906,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F143" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6965,10 +6935,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F144" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6994,10 +6964,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F145" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7023,10 +6993,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F146" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7052,10 +7022,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F147" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7081,10 +7051,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F148" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -7110,10 +7080,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F149" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -7139,10 +7109,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F150" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G150" t="n">
         <v>8</v>
@@ -7168,10 +7138,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F151" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G151" t="n">
         <v>20</v>
@@ -7197,10 +7167,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F152" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -7226,10 +7196,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F153" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -7255,10 +7225,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F154" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G154" t="n">
         <v>12</v>
@@ -7284,10 +7254,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>114</v>
+      </c>
+      <c r="F155" t="s">
         <v>115</v>
-      </c>
-      <c r="F155" t="s">
-        <v>116</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7313,10 +7283,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F156" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G156" t="n">
         <v>7</v>
@@ -7342,10 +7312,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F157" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7371,10 +7341,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F158" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G158" t="n">
         <v>3</v>
@@ -7400,10 +7370,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F159" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7429,10 +7399,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F160" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G160" t="n">
         <v>3</v>
@@ -7458,10 +7428,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F161" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -7487,10 +7457,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F162" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G162" t="n">
         <v>2</v>
@@ -7516,10 +7486,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F163" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -7545,10 +7515,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F164" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G164" t="n">
         <v>3</v>
@@ -7574,10 +7544,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F165" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G165" t="n">
         <v>3</v>
@@ -7603,10 +7573,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F166" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7632,10 +7602,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F167" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -7661,10 +7631,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F168" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G168" t="n">
         <v>4</v>
@@ -7690,10 +7660,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F169" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7719,10 +7689,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F170" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -7748,10 +7718,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F171" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7777,10 +7747,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F172" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -7806,10 +7776,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F173" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G173" t="n">
         <v>4</v>
@@ -7835,10 +7805,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F174" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G174" t="n">
         <v>4</v>
@@ -7864,10 +7834,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F175" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -7893,10 +7863,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F176" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G176" t="n">
         <v>3</v>
@@ -7922,10 +7892,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F177" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G177" t="n">
         <v>3</v>
@@ -7951,10 +7921,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F178" t="s">
-        <v>342</v>
+        <v>211</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7980,10 +7950,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F179" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G179" t="n">
         <v>3</v>
@@ -8009,10 +7979,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F180" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -8038,10 +8008,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F181" t="s">
-        <v>348</v>
+        <v>213</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8067,10 +8037,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F182" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G182" t="n">
         <v>3</v>
@@ -8096,10 +8066,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F183" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8125,10 +8095,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F184" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G184" t="n">
         <v>4</v>
@@ -8154,10 +8124,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F185" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G185" t="n">
         <v>3</v>
@@ -8183,10 +8153,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F186" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8212,10 +8182,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F187" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8241,10 +8211,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F188" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8270,10 +8240,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F189" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8299,10 +8269,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F190" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8328,10 +8298,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F191" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8357,10 +8327,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F192" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8386,10 +8356,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F193" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8415,10 +8385,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F194" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8444,10 +8414,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F195" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8473,10 +8443,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F196" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8502,10 +8472,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F197" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8531,10 +8501,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F198" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8560,10 +8530,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F199" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8589,10 +8559,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F200" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8618,10 +8588,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F201" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8647,10 +8617,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F202" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8676,10 +8646,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F203" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8705,10 +8675,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F204" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8734,10 +8704,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F205" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8763,10 +8733,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F206" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8792,10 +8762,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F207" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8821,10 +8791,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F208" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8850,10 +8820,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F209" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G209" t="n">
         <v>4</v>
@@ -8879,10 +8849,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F210" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -8908,10 +8878,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F211" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8937,10 +8907,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F212" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -8966,10 +8936,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F213" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8995,10 +8965,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F214" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9024,10 +8994,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F215" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9053,10 +9023,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F216" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9082,10 +9052,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F217" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9111,10 +9081,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F218" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G218" t="n">
         <v>2</v>
@@ -9140,10 +9110,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F219" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9169,10 +9139,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F220" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9198,10 +9168,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F221" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9227,10 +9197,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F222" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9256,10 +9226,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F223" t="s">
-        <v>432</v>
+        <v>298</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9285,10 +9255,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F224" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -9314,10 +9284,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F225" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9343,10 +9313,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F226" t="s">
-        <v>438</v>
+        <v>334</v>
       </c>
       <c r="G226" t="n">
         <v>2</v>
@@ -9372,10 +9342,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="F227" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9401,10 +9371,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F228" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9430,10 +9400,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F229" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9459,10 +9429,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F230" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9488,10 +9458,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F231" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="G231" t="n">
         <v>2</v>
@@ -9517,10 +9487,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F232" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G232" t="n">
         <v>2</v>
@@ -9546,10 +9516,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F233" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="G233" t="n">
         <v>3</v>
@@ -9575,10 +9545,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F234" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="G234" t="n">
         <v>2</v>
@@ -9604,10 +9574,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F235" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="G235" t="n">
         <v>2</v>
@@ -9633,10 +9603,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F236" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9662,10 +9632,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="F237" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9691,10 +9661,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="F238" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="G238" t="n">
         <v>3</v>
@@ -9720,10 +9690,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F239" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9749,10 +9719,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F240" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="G240" t="n">
         <v>4</v>
@@ -9778,10 +9748,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="F241" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="G241" t="n">
         <v>2</v>
@@ -9807,10 +9777,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="F242" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="G242" t="n">
         <v>2</v>
@@ -9836,10 +9806,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="F243" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="G243" t="n">
         <v>3</v>
@@ -9865,10 +9835,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="F244" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="G244" t="n">
         <v>2</v>
@@ -9894,10 +9864,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F245" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9923,10 +9893,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F246" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9952,10 +9922,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F247" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9981,10 +9951,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F248" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G248" t="n">
         <v>2</v>
@@ -10010,10 +9980,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F249" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10039,10 +10009,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F250" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="G250" t="n">
         <v>2</v>
@@ -10068,10 +10038,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F251" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G251" t="n">
         <v>2</v>
@@ -10097,10 +10067,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="F252" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="G252" t="n">
         <v>6</v>
@@ -10126,10 +10096,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F253" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10155,10 +10125,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="F254" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="G254" t="n">
         <v>2</v>
@@ -10184,10 +10154,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="F255" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10213,10 +10183,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="F256" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10242,10 +10212,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="F257" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10271,10 +10241,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="F258" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10300,10 +10270,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="F259" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10329,10 +10299,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="F260" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10358,10 +10328,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F261" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="G261" t="n">
         <v>2</v>
@@ -10387,10 +10357,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="F262" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="G262" t="n">
         <v>2</v>
@@ -10416,10 +10386,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="F263" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10445,10 +10415,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="F264" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10474,10 +10444,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="F265" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10503,10 +10473,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="F266" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="G266" t="n">
         <v>2</v>
@@ -10532,10 +10502,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="F267" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10561,10 +10531,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="F268" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10590,10 +10560,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="F269" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10619,10 +10589,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="F270" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="G270" t="n">
         <v>2</v>
@@ -10648,10 +10618,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="F271" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="G271" t="n">
         <v>2</v>
@@ -10677,10 +10647,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="F272" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="G272" t="n">
         <v>2</v>
@@ -10706,10 +10676,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="F273" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10735,10 +10705,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="F274" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="G274" t="n">
         <v>2</v>
@@ -10764,10 +10734,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="F275" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G275" t="n">
         <v>3</v>
@@ -10793,10 +10763,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="F276" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10822,10 +10792,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="F277" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10851,10 +10821,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="F278" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10880,10 +10850,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="F279" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="G279" t="n">
         <v>2</v>
@@ -10909,10 +10879,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="F280" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10938,10 +10908,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F281" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10967,10 +10937,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="F282" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10996,10 +10966,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="F283" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11025,10 +10995,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="F284" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11054,10 +11024,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="F285" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="G285" t="n">
         <v>2</v>
@@ -11083,10 +11053,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="F286" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="G286" t="n">
         <v>2</v>
@@ -11112,10 +11082,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="F287" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="G287" t="n">
         <v>2</v>
@@ -11141,10 +11111,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F288" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11170,10 +11140,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F289" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11199,10 +11169,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="F290" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="G290" t="n">
         <v>3</v>
@@ -11228,10 +11198,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="F291" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11257,10 +11227,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="F292" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="G292" t="n">
         <v>4</v>
@@ -11286,10 +11256,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="F293" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G293" t="n">
         <v>2</v>
@@ -11315,10 +11285,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="F294" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11344,10 +11314,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="F295" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11373,10 +11343,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="F296" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11402,10 +11372,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="F297" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11431,10 +11401,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="F298" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11460,10 +11430,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="F299" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11489,10 +11459,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F300" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11518,10 +11488,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="F301" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11547,10 +11517,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="F302" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11576,10 +11546,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="F303" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11605,10 +11575,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="F304" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="G304" t="n">
         <v>2</v>
@@ -11634,10 +11604,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="F305" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="G305" t="n">
         <v>2</v>
@@ -11663,10 +11633,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="F306" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="G306" t="n">
         <v>2</v>
@@ -11692,10 +11662,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="F307" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11721,10 +11691,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="F308" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11750,10 +11720,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="F309" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11779,10 +11749,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="F310" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11808,10 +11778,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="F311" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11837,10 +11807,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="F312" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="G312" t="n">
         <v>2</v>
@@ -11866,10 +11836,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="F313" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="G313" t="n">
         <v>2</v>
@@ -11895,10 +11865,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="F314" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11924,10 +11894,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="F315" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11953,10 +11923,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="F316" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11982,10 +11952,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="F317" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="G317" t="n">
         <v>2</v>
@@ -12011,10 +11981,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="F318" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12040,10 +12010,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="F319" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="G319" t="n">
         <v>4</v>
@@ -12069,10 +12039,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="F320" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="G320" t="n">
         <v>2</v>
@@ -12098,10 +12068,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="F321" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="G321" t="n">
         <v>2</v>
@@ -12127,10 +12097,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="F322" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12156,10 +12126,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="F323" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12185,10 +12155,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="F324" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="G324" t="n">
         <v>2</v>
@@ -12214,10 +12184,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="F325" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12243,10 +12213,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="F326" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="G326" t="n">
         <v>2</v>
@@ -12272,10 +12242,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="F327" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12301,10 +12271,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="F328" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12330,10 +12300,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="F329" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12359,10 +12329,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="F330" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="G330" t="n">
         <v>7</v>
@@ -12388,10 +12358,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="F331" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="G331" t="n">
         <v>3</v>
@@ -12417,10 +12387,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="F332" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12446,10 +12416,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="F333" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="G333" t="n">
         <v>2</v>
@@ -12475,10 +12445,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="F334" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="G334" t="n">
         <v>2</v>
@@ -12504,10 +12474,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="F335" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12533,10 +12503,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="F336" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12562,10 +12532,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="F337" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12591,10 +12561,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="F338" t="s">
-        <v>654</v>
+        <v>448</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12620,10 +12590,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F339" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12649,10 +12619,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F340" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12678,10 +12648,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="F341" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12707,10 +12677,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="F342" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="G342" t="n">
         <v>5</v>
@@ -12736,10 +12706,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="F343" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12765,10 +12735,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="F344" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="G344" t="n">
         <v>2</v>
@@ -12794,10 +12764,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="F345" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12823,10 +12793,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="F346" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12852,10 +12822,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="F347" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="G347" t="n">
         <v>2</v>
@@ -12881,10 +12851,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="F348" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="G348" t="n">
         <v>2</v>
@@ -12910,10 +12880,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="F349" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12939,10 +12909,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="F350" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12968,10 +12938,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="F351" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="G351" t="n">
         <v>3</v>
@@ -12997,10 +12967,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F352" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13026,10 +12996,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="F353" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13055,10 +13025,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="F354" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13084,10 +13054,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="F355" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13113,10 +13083,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="F356" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13142,10 +13112,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="F357" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13171,10 +13141,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="F358" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13200,10 +13170,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="F359" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13229,10 +13199,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="F360" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13258,10 +13228,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="F361" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13287,10 +13257,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="F362" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13316,10 +13286,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="F363" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13345,10 +13315,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="F364" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13374,10 +13344,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="F365" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13403,10 +13373,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="F366" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13432,10 +13402,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="F367" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13461,10 +13431,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="F368" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13490,10 +13460,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="F369" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13519,10 +13489,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="F370" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13548,10 +13518,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="F371" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13577,10 +13547,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="F372" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="G372" t="n">
         <v>2</v>
@@ -13606,10 +13576,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="F373" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13635,10 +13605,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="F374" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13664,10 +13634,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="F375" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13693,10 +13663,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="F376" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13722,10 +13692,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="F377" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13751,10 +13721,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="F378" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13780,10 +13750,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="F379" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13809,10 +13779,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="F380" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="G380" t="n">
         <v>2</v>
@@ -13838,10 +13808,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="F381" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13867,10 +13837,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="F382" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -13896,10 +13866,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="F383" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -13925,10 +13895,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="F384" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -13954,10 +13924,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="F385" t="s">
-        <v>734</v>
+        <v>350</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -13983,10 +13953,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="F386" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14012,10 +13982,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="F387" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="G387" t="n">
         <v>5</v>
@@ -14041,10 +14011,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="F388" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14070,10 +14040,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="F389" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14099,10 +14069,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="F390" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14128,10 +14098,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="F391" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="G391" t="n">
         <v>4</v>
@@ -14157,10 +14127,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="F392" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14186,10 +14156,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="F393" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="G393" t="n">
         <v>4</v>
@@ -14215,10 +14185,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="F394" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14244,10 +14214,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="F395" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14273,10 +14243,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="F396" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14302,10 +14272,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="F397" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14331,10 +14301,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="F398" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14360,10 +14330,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="F399" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14389,10 +14359,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="F400" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="G400" t="n">
         <v>4</v>
@@ -14418,10 +14388,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="F401" t="s">
-        <v>766</v>
+        <v>740</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14447,10 +14417,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="F402" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14476,10 +14446,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="F403" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14505,10 +14475,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="F404" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14534,10 +14504,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="F405" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14563,10 +14533,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="F406" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14592,10 +14562,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="F407" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -14621,10 +14591,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="F408" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="G408" t="n">
         <v>3</v>
@@ -14650,10 +14620,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="F409" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="G409" t="n">
         <v>2</v>
@@ -14679,10 +14649,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="F410" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -14708,10 +14678,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="F411" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="G411" t="n">
         <v>3</v>
@@ -14737,10 +14707,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="F412" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="G412" t="n">
         <v>2</v>
@@ -14766,10 +14736,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="F413" t="s">
-        <v>788</v>
+        <v>624</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -14795,10 +14765,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="F414" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="G414" t="n">
         <v>2</v>
@@ -14824,10 +14794,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="F415" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -14853,10 +14823,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="F416" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -14882,10 +14852,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="F417" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -14911,10 +14881,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="F418" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="G418" t="n">
         <v>3</v>
@@ -14940,10 +14910,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="F419" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -14969,10 +14939,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="F420" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -14998,10 +14968,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="F421" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15027,10 +14997,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="F422" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15056,10 +15026,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="F423" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15085,10 +15055,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="F424" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15114,10 +15084,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="F425" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="G425" t="n">
         <v>10</v>
@@ -15143,10 +15113,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="F426" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>

--- a/xlsx/哥斯大黎加_intext.xlsx
+++ b/xlsx/哥斯大黎加_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="814">
   <si>
     <t>哥斯大黎加</t>
   </si>
@@ -29,7 +29,7 @@
     <t>哥斯大黎加國旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_哥斯大黎加</t>
+    <t>体育运动_体育运动_南非_哥斯大黎加</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0%E5%9B%BD%E5%BE%BD</t>
@@ -390,6 +390,12 @@
   </si>
   <si>
     <t>沒有軍隊的國家列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8D%B7%E8%A5%BF_(%E5%93%A5%E6%96%AF%E5%A4%A7%E9%BB%8E%E5%8A%A0)</t>
+  </si>
+  <si>
+    <t>聖荷西 (哥斯大黎加)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0%E5%8E%86%E5%8F%B2</t>
@@ -4674,10 +4680,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="F65" t="s">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>5</v>
@@ -4703,10 +4709,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4732,10 +4738,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4761,10 +4767,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>3</v>
@@ -4790,10 +4796,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>22</v>
@@ -4819,10 +4825,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F70" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4848,10 +4854,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -4877,10 +4883,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4906,10 +4912,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>15</v>
@@ -4935,10 +4941,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F74" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4964,10 +4970,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F75" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4993,10 +4999,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F76" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -5022,10 +5028,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F77" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -5051,10 +5057,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -5080,10 +5086,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F79" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -5138,10 +5144,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F81" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -5167,10 +5173,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F82" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -5196,10 +5202,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F83" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>5</v>
@@ -5225,10 +5231,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F84" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>3</v>
@@ -5254,10 +5260,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F85" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>9</v>
@@ -5283,10 +5289,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F86" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5312,10 +5318,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F87" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5341,10 +5347,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F88" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5370,10 +5376,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F89" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5399,10 +5405,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F90" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5428,10 +5434,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F91" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -5457,10 +5463,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F92" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5486,10 +5492,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F93" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5515,10 +5521,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F94" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5544,10 +5550,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F95" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>4</v>
@@ -5573,10 +5579,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F96" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5602,10 +5608,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F97" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>6</v>
@@ -5631,10 +5637,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F98" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5660,10 +5666,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F99" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5689,10 +5695,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F100" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5718,10 +5724,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F101" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5747,10 +5753,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F102" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5776,10 +5782,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F103" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -5805,10 +5811,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F104" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -5834,10 +5840,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F105" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5863,10 +5869,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F106" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5892,10 +5898,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F107" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>3</v>
@@ -5921,10 +5927,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F108" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5950,10 +5956,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F109" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5979,10 +5985,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F110" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>3</v>
@@ -6008,10 +6014,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F111" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>3</v>
@@ -6037,10 +6043,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F112" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>7</v>
@@ -6066,10 +6072,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F113" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -6095,10 +6101,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F114" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -6124,10 +6130,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F115" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G115" t="n">
         <v>4</v>
@@ -6153,10 +6159,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F116" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6182,10 +6188,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F117" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -6211,10 +6217,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F118" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6240,10 +6246,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F119" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6269,10 +6275,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F120" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -6298,10 +6304,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F121" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G121" t="n">
         <v>3</v>
@@ -6327,10 +6333,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F122" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6356,10 +6362,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F123" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6385,10 +6391,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F124" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6414,10 +6420,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F125" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6443,10 +6449,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F126" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G126" t="n">
         <v>4</v>
@@ -6472,10 +6478,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F127" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6501,10 +6507,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F128" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6530,10 +6536,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F129" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6559,10 +6565,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F130" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G130" t="n">
         <v>5</v>
@@ -6588,10 +6594,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F131" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -6617,10 +6623,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F132" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -6646,10 +6652,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F133" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6675,10 +6681,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F134" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6704,10 +6710,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F135" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6733,10 +6739,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F136" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6762,10 +6768,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F137" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6791,10 +6797,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F138" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6820,10 +6826,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F139" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6849,10 +6855,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F140" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6878,10 +6884,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F141" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6907,10 +6913,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F142" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6936,10 +6942,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F143" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6965,10 +6971,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F144" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6994,10 +7000,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F145" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7023,10 +7029,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F146" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7052,10 +7058,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F147" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7081,10 +7087,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F148" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -7110,10 +7116,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F149" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -7139,10 +7145,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F150" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G150" t="n">
         <v>8</v>
@@ -7168,10 +7174,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F151" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G151" t="n">
         <v>20</v>
@@ -7197,10 +7203,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F152" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -7226,10 +7232,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F153" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -7255,10 +7261,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F154" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G154" t="n">
         <v>12</v>
@@ -7313,10 +7319,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F156" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G156" t="n">
         <v>7</v>
@@ -7342,10 +7348,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F157" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7371,10 +7377,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F158" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G158" t="n">
         <v>3</v>
@@ -7400,10 +7406,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F159" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7429,10 +7435,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F160" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G160" t="n">
         <v>3</v>
@@ -7458,10 +7464,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F161" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -7487,10 +7493,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F162" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G162" t="n">
         <v>2</v>
@@ -7516,10 +7522,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F163" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -7545,10 +7551,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F164" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G164" t="n">
         <v>3</v>
@@ -7574,10 +7580,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F165" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G165" t="n">
         <v>3</v>
@@ -7603,10 +7609,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F166" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7632,10 +7638,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F167" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -7661,10 +7667,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F168" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G168" t="n">
         <v>4</v>
@@ -7690,10 +7696,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F169" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7719,10 +7725,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F170" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -7748,10 +7754,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F171" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7777,10 +7783,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F172" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -7806,10 +7812,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F173" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G173" t="n">
         <v>4</v>
@@ -7835,10 +7841,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F174" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G174" t="n">
         <v>4</v>
@@ -7864,10 +7870,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F175" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -7893,10 +7899,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F176" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G176" t="n">
         <v>3</v>
@@ -7922,10 +7928,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F177" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G177" t="n">
         <v>3</v>
@@ -7951,10 +7957,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F178" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7980,10 +7986,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F179" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G179" t="n">
         <v>3</v>
@@ -8009,10 +8015,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F180" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -8038,10 +8044,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F181" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8067,10 +8073,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F182" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G182" t="n">
         <v>3</v>
@@ -8096,10 +8102,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F183" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8125,10 +8131,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F184" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G184" t="n">
         <v>4</v>
@@ -8154,10 +8160,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F185" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G185" t="n">
         <v>3</v>
@@ -8183,10 +8189,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F186" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8212,10 +8218,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F187" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8241,10 +8247,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F188" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8270,10 +8276,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F189" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8299,10 +8305,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F190" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8328,10 +8334,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F191" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8357,10 +8363,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F192" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8386,10 +8392,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F193" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8415,10 +8421,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F194" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8444,10 +8450,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F195" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8473,10 +8479,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F196" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8502,10 +8508,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F197" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8531,10 +8537,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F198" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8560,10 +8566,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F199" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8589,10 +8595,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F200" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8618,10 +8624,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F201" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8647,10 +8653,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F202" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8676,10 +8682,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F203" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8705,10 +8711,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F204" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8734,10 +8740,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F205" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8763,10 +8769,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F206" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8792,10 +8798,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F207" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8821,10 +8827,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F208" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8850,10 +8856,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F209" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G209" t="n">
         <v>4</v>
@@ -8879,10 +8885,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F210" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -8908,10 +8914,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F211" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8937,10 +8943,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F212" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -8966,10 +8972,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F213" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8995,10 +9001,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F214" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9024,10 +9030,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F215" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9053,10 +9059,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F216" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9082,10 +9088,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F217" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9111,10 +9117,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F218" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G218" t="n">
         <v>2</v>
@@ -9140,10 +9146,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F219" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9169,10 +9175,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F220" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9198,10 +9204,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F221" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9227,10 +9233,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F222" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9256,10 +9262,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F223" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9285,10 +9291,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F224" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -9314,10 +9320,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F225" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9343,10 +9349,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F226" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="G226" t="n">
         <v>2</v>
@@ -9372,10 +9378,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="F227" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9401,10 +9407,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F228" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9430,10 +9436,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F229" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9459,10 +9465,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F230" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9488,10 +9494,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F231" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="G231" t="n">
         <v>2</v>
@@ -9517,10 +9523,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F232" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="G232" t="n">
         <v>2</v>
@@ -9546,10 +9552,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F233" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G233" t="n">
         <v>3</v>
@@ -9575,10 +9581,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F234" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G234" t="n">
         <v>2</v>
@@ -9604,10 +9610,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F235" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="G235" t="n">
         <v>2</v>
@@ -9633,10 +9639,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F236" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9662,10 +9668,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F237" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9691,10 +9697,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="F238" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="G238" t="n">
         <v>3</v>
@@ -9720,10 +9726,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F239" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9749,10 +9755,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F240" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="G240" t="n">
         <v>4</v>
@@ -9778,10 +9784,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F241" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G241" t="n">
         <v>2</v>
@@ -9807,10 +9813,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F242" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="G242" t="n">
         <v>2</v>
@@ -9836,10 +9842,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F243" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G243" t="n">
         <v>3</v>
@@ -9865,10 +9871,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F244" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="G244" t="n">
         <v>2</v>
@@ -9894,10 +9900,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F245" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9923,10 +9929,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F246" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9952,10 +9958,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F247" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9981,10 +9987,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F248" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G248" t="n">
         <v>2</v>
@@ -10010,10 +10016,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F249" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10039,10 +10045,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F250" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="G250" t="n">
         <v>2</v>
@@ -10068,10 +10074,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F251" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G251" t="n">
         <v>2</v>
@@ -10097,10 +10103,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F252" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G252" t="n">
         <v>6</v>
@@ -10126,10 +10132,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F253" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10155,10 +10161,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="F254" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="G254" t="n">
         <v>2</v>
@@ -10184,10 +10190,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F255" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10213,10 +10219,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F256" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10242,10 +10248,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="F257" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10271,10 +10277,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F258" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10300,10 +10306,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F259" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10329,10 +10335,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F260" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10358,10 +10364,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F261" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="G261" t="n">
         <v>2</v>
@@ -10387,10 +10393,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F262" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="G262" t="n">
         <v>2</v>
@@ -10416,10 +10422,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F263" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10445,10 +10451,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F264" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10474,10 +10480,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="F265" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10503,10 +10509,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="F266" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G266" t="n">
         <v>2</v>
@@ -10532,10 +10538,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F267" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10561,10 +10567,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="F268" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10590,10 +10596,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F269" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10619,10 +10625,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="F270" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="G270" t="n">
         <v>2</v>
@@ -10648,10 +10654,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F271" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="G271" t="n">
         <v>2</v>
@@ -10677,10 +10683,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F272" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="G272" t="n">
         <v>2</v>
@@ -10706,10 +10712,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="F273" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10735,10 +10741,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="F274" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="G274" t="n">
         <v>2</v>
@@ -10764,10 +10770,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F275" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G275" t="n">
         <v>3</v>
@@ -10793,10 +10799,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="F276" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10822,10 +10828,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="F277" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10851,10 +10857,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F278" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10880,10 +10886,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="F279" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="G279" t="n">
         <v>2</v>
@@ -10909,10 +10915,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="F280" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10938,10 +10944,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="F281" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10967,10 +10973,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="F282" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10996,10 +11002,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F283" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11025,10 +11031,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="F284" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11054,10 +11060,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F285" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="G285" t="n">
         <v>2</v>
@@ -11083,10 +11089,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="F286" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="G286" t="n">
         <v>2</v>
@@ -11112,10 +11118,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="F287" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="G287" t="n">
         <v>2</v>
@@ -11141,10 +11147,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F288" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11170,10 +11176,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F289" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11199,10 +11205,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="F290" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="G290" t="n">
         <v>3</v>
@@ -11228,10 +11234,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="F291" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11257,10 +11263,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F292" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="G292" t="n">
         <v>4</v>
@@ -11286,10 +11292,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F293" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="G293" t="n">
         <v>2</v>
@@ -11315,10 +11321,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F294" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11344,10 +11350,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="F295" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11373,10 +11379,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="F296" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11402,10 +11408,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="F297" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11431,10 +11437,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="F298" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11460,10 +11466,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="F299" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11489,10 +11495,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F300" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11518,10 +11524,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F301" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11547,10 +11553,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="F302" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11576,10 +11582,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="F303" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11605,10 +11611,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="F304" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="G304" t="n">
         <v>2</v>
@@ -11634,10 +11640,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F305" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="G305" t="n">
         <v>2</v>
@@ -11663,10 +11669,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="F306" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="G306" t="n">
         <v>2</v>
@@ -11692,10 +11698,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="F307" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11721,10 +11727,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="F308" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11750,10 +11756,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="F309" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11779,10 +11785,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="F310" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11808,10 +11814,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="F311" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11837,10 +11843,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="F312" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="G312" t="n">
         <v>2</v>
@@ -11866,10 +11872,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="F313" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="G313" t="n">
         <v>2</v>
@@ -11895,10 +11901,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="F314" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11924,10 +11930,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="F315" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11953,10 +11959,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="F316" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11982,10 +11988,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="F317" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="G317" t="n">
         <v>2</v>
@@ -12011,10 +12017,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="F318" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12040,10 +12046,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="F319" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="G319" t="n">
         <v>4</v>
@@ -12069,10 +12075,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="F320" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="G320" t="n">
         <v>2</v>
@@ -12098,10 +12104,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="F321" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="G321" t="n">
         <v>2</v>
@@ -12127,10 +12133,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="F322" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12156,10 +12162,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="F323" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12185,10 +12191,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="F324" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G324" t="n">
         <v>2</v>
@@ -12214,10 +12220,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="F325" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12243,10 +12249,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="F326" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="G326" t="n">
         <v>2</v>
@@ -12272,10 +12278,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="F327" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12301,10 +12307,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="F328" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12330,10 +12336,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="F329" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12359,10 +12365,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="F330" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="G330" t="n">
         <v>7</v>
@@ -12388,10 +12394,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="F331" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="G331" t="n">
         <v>3</v>
@@ -12417,10 +12423,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="F332" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12446,10 +12452,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="F333" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="G333" t="n">
         <v>2</v>
@@ -12475,10 +12481,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="F334" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="G334" t="n">
         <v>2</v>
@@ -12504,10 +12510,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="F335" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12533,10 +12539,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="F336" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12562,10 +12568,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="F337" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12591,10 +12597,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="F338" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12620,10 +12626,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F339" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12649,10 +12655,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F340" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12678,10 +12684,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F341" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12707,10 +12713,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="F342" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="G342" t="n">
         <v>5</v>
@@ -12736,10 +12742,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F343" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12765,10 +12771,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F344" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="G344" t="n">
         <v>2</v>
@@ -12794,10 +12800,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="F345" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12823,10 +12829,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="F346" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12852,10 +12858,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="F347" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="G347" t="n">
         <v>2</v>
@@ -12881,10 +12887,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="F348" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="G348" t="n">
         <v>2</v>
@@ -12910,10 +12916,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="F349" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12939,10 +12945,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="F350" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12968,10 +12974,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="F351" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="G351" t="n">
         <v>3</v>
@@ -12997,10 +13003,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F352" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13026,10 +13032,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="F353" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13055,10 +13061,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="F354" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13084,10 +13090,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F355" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13113,10 +13119,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="F356" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13142,10 +13148,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="F357" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13171,10 +13177,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="F358" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13200,10 +13206,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="F359" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13229,10 +13235,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="F360" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13258,10 +13264,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="F361" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13287,10 +13293,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="F362" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13316,10 +13322,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="F363" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13345,10 +13351,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="F364" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13374,10 +13380,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="F365" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13403,10 +13409,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="F366" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13432,10 +13438,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="F367" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13461,10 +13467,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="F368" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13490,10 +13496,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="F369" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13519,10 +13525,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="F370" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13548,10 +13554,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="F371" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13577,10 +13583,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="F372" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="G372" t="n">
         <v>2</v>
@@ -13606,10 +13612,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="F373" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13635,10 +13641,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="F374" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13664,10 +13670,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="F375" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13693,10 +13699,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="F376" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13722,10 +13728,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="F377" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13751,10 +13757,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="F378" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13780,10 +13786,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="F379" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13809,10 +13815,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="F380" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="G380" t="n">
         <v>2</v>
@@ -13838,10 +13844,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="F381" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13867,10 +13873,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="F382" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -13896,10 +13902,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="F383" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -13925,10 +13931,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="F384" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -13954,10 +13960,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="F385" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -13983,10 +13989,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="F386" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14012,10 +14018,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="F387" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="G387" t="n">
         <v>5</v>
@@ -14041,10 +14047,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="F388" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14070,10 +14076,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="F389" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14099,10 +14105,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="F390" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14128,10 +14134,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="F391" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="G391" t="n">
         <v>4</v>
@@ -14157,10 +14163,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="F392" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14186,10 +14192,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="F393" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="G393" t="n">
         <v>4</v>
@@ -14215,10 +14221,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="F394" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14244,10 +14250,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="F395" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14273,10 +14279,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="F396" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14302,10 +14308,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="F397" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14331,10 +14337,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="F398" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14360,10 +14366,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="F399" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14389,10 +14395,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="F400" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="G400" t="n">
         <v>4</v>
@@ -14418,10 +14424,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="F401" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14447,10 +14453,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="F402" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14476,10 +14482,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="F403" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14505,10 +14511,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="F404" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14534,10 +14540,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="F405" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14563,10 +14569,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="F406" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14592,10 +14598,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="F407" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -14621,10 +14627,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="F408" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="G408" t="n">
         <v>3</v>
@@ -14650,10 +14656,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="F409" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="G409" t="n">
         <v>2</v>
@@ -14679,10 +14685,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="F410" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -14708,10 +14714,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="F411" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="G411" t="n">
         <v>3</v>
@@ -14737,10 +14743,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="F412" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="G412" t="n">
         <v>2</v>
@@ -14766,10 +14772,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="F413" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -14795,10 +14801,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="F414" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="G414" t="n">
         <v>2</v>
@@ -14824,10 +14830,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="F415" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -14853,10 +14859,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="F416" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -14882,10 +14888,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="F417" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -14911,10 +14917,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="F418" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="G418" t="n">
         <v>3</v>
@@ -14940,10 +14946,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="F419" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -14969,10 +14975,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="F420" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -14998,10 +15004,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="F421" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15027,10 +15033,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="F422" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15056,10 +15062,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="F423" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15085,10 +15091,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="F424" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15114,10 +15120,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="F425" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="G425" t="n">
         <v>10</v>
@@ -15143,10 +15149,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="F426" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
